--- a/res/awesome_tools/V1.0_CostCalculationTemplatePlus.xlsx
+++ b/res/awesome_tools/V1.0_CostCalculationTemplatePlus.xlsx
@@ -14,7 +14,7 @@
     <sheet name="第四周" sheetId="6" r:id="rId5"/>
     <sheet name="第五周" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
 </workbook>
 </file>
 
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>第一周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,6 +241,10 @@
     <t>8. 最后附上链接：https://gitlab.com/csnotes/csnotes/blob/master/res/awesome_tools/V1.0_CostCalculationTemplatePlus.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>当前时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1002,6 +1002,66 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,30 +1092,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,15 +1101,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,33 +1114,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1432,69 +1432,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12">
         <v>2019</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12">
         <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="31">
+        <v>40</v>
+      </c>
+      <c r="E2" s="30">
         <f ca="1">NOW()</f>
-        <v>43731.737525462966</v>
-      </c>
-      <c r="F2" s="32"/>
+        <v>43738.431450925927</v>
+      </c>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12">
         <v>30</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="33">
+        <v>19</v>
+      </c>
+      <c r="E3" s="32">
         <f>DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))</f>
         <v>31</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月消费表"</f>
         <v>2020年1月消费表</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1673,10 +1673,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11" t="str">
         <f>第一周!$J$8</f>
         <v>￥15</v>
@@ -1703,10 +1703,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="4" t="str">
         <f>第一周!$J$11</f>
         <v>￥18</v>
@@ -1733,10 +1733,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="6" t="str">
         <f>第一周!$J$12</f>
         <v>￥100</v>
@@ -1763,10 +1763,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="26"/>
+      <c r="A15" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="46"/>
       <c r="C15" s="7" t="str">
         <f>第一周!$J$13</f>
         <v>￥107</v>
@@ -1793,120 +1793,115 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
@@ -1921,6 +1916,11 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,25 +1942,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第一周"</f>
         <v>2020年1月第一周</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="str">
         <f>IF((统计!$C$3+0)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+0)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
         <v>12.30 Mon.</v>
@@ -1994,14 +1994,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -2021,13 +2021,13 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="36" t="str">
         <f>"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(D7,FIND("￥",D7)+1,5),MID(E7,FIND("￥",E7)+1,5),MID(F7,FIND("￥",F7)+1,5),MID(G7,FIND("￥",G7)+1,5),MID(H7,FIND("￥",H7)+1,5),MID(I7,FIND("￥",I7)+1,5))</f>
         <v>￥10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2052,10 +2052,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2080,10 +2080,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2108,10 +2108,10 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2142,15 +2142,15 @@
         <f t="shared" si="0"/>
         <v>￥0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
@@ -2170,16 +2170,16 @@
       <c r="I8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="54" t="str">
         <f>"￥"&amp;SUM(MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(D8,FIND("￥",D8)+1,5),MID(D9,FIND("￥",D9)+1,5),MID(D10,FIND("￥",D10)+1,5),MID(E8,FIND("￥",E8)+1,5),MID(E9,FIND("￥",E9)+1,5),MID(E10,FIND("￥",E10)+1,5),MID(F8,FIND("￥",F8)+1,5),MID(F9,FIND("￥",F9)+1,5),MID(F10,FIND("￥",F10)+1,5),MID(G8,FIND("￥",G8)+1,5),MID(G9,FIND("￥",G9)+1,5),MID(G10,FIND("￥",G10)+1,5),MID(H8,FIND("￥",H8)+1,5),MID(H9,FIND("￥",H9)+1,5),MID(H10,FIND("￥",H10)+1,5),MID(I8,FIND("￥",I8)+1,5),MID(I9,FIND("￥",I9)+1,5),MID(I10,FIND("￥",I10)+1,5))</f>
         <v>￥15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -2201,13 +2201,13 @@
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -2229,15 +2229,15 @@
       <c r="I10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -2263,12 +2263,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -2294,10 +2294,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:I13" si="1">"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(C12,FIND("￥",C12)+1,5),-MID(C11,FIND("￥",C11)+1,5))</f>
         <v>￥107</v>
@@ -2364,25 +2364,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第二周"</f>
         <v>2020年1月第二周</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="str">
         <f>IF((统计!$C$3+7)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+7),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+7)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
         <v>1.6 Mon.</v>
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2443,13 +2443,13 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="36" t="str">
         <f>"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(D7,FIND("￥",D7)+1,5),MID(E7,FIND("￥",E7)+1,5),MID(F7,FIND("￥",F7)+1,5),MID(G7,FIND("￥",G7)+1,5),MID(H7,FIND("￥",H7)+1,5),MID(I7,FIND("￥",I7)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2474,10 +2474,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2502,10 +2502,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2530,10 +2530,10 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2565,13 +2565,13 @@
         <f t="shared" si="0"/>
         <v>￥0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -2593,16 +2593,16 @@
       <c r="I8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="54" t="str">
         <f>"￥"&amp;SUM(MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(D8,FIND("￥",D8)+1,5),MID(D9,FIND("￥",D9)+1,5),MID(D10,FIND("￥",D10)+1,5),MID(E8,FIND("￥",E8)+1,5),MID(E9,FIND("￥",E9)+1,5),MID(E10,FIND("￥",E10)+1,5),MID(F8,FIND("￥",F8)+1,5),MID(F9,FIND("￥",F9)+1,5),MID(F10,FIND("￥",F10)+1,5),MID(G8,FIND("￥",G8)+1,5),MID(G9,FIND("￥",G9)+1,5),MID(G10,FIND("￥",G10)+1,5),MID(H8,FIND("￥",H8)+1,5),MID(H9,FIND("￥",H9)+1,5),MID(H10,FIND("￥",H10)+1,5),MID(I8,FIND("￥",I8)+1,5),MID(I9,FIND("￥",I9)+1,5),MID(I10,FIND("￥",I10)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -2624,13 +2624,13 @@
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -2652,13 +2652,13 @@
       <c r="I10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2717,10 +2717,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:I13" si="1">"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(C12,FIND("￥",C12)+1,5),-MID(C11,FIND("￥",C11)+1,5))</f>
         <v>￥0</v>
@@ -2787,25 +2787,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第三周"</f>
         <v>2020年1月第三周</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="str">
         <f>IF((统计!$C$3+14)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+14),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+14)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
         <v>1.13 Mon.</v>
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2864,15 +2864,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="40" t="str">
+        <v>29</v>
+      </c>
+      <c r="J3" s="36" t="str">
         <f>"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(D7,FIND("￥",D7)+1,5),MID(E7,FIND("￥",E7)+1,5),MID(F7,FIND("￥",F7)+1,5),MID(G7,FIND("￥",G7)+1,5),MID(H7,FIND("￥",H7)+1,5),MID(I7,FIND("￥",I7)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2897,10 +2897,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2953,10 +2953,10 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2988,13 +2988,13 @@
         <f t="shared" si="0"/>
         <v>￥0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -3016,16 +3016,16 @@
       <c r="I8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="54" t="str">
         <f>"￥"&amp;SUM(MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(D8,FIND("￥",D8)+1,5),MID(D9,FIND("￥",D9)+1,5),MID(D10,FIND("￥",D10)+1,5),MID(E8,FIND("￥",E8)+1,5),MID(E9,FIND("￥",E9)+1,5),MID(E10,FIND("￥",E10)+1,5),MID(F8,FIND("￥",F8)+1,5),MID(F9,FIND("￥",F9)+1,5),MID(F10,FIND("￥",F10)+1,5),MID(G8,FIND("￥",G8)+1,5),MID(G9,FIND("￥",G9)+1,5),MID(G10,FIND("￥",G10)+1,5),MID(H8,FIND("￥",H8)+1,5),MID(H9,FIND("￥",H9)+1,5),MID(H10,FIND("￥",H10)+1,5),MID(I8,FIND("￥",I8)+1,5),MID(I9,FIND("￥",I9)+1,5),MID(I10,FIND("￥",I10)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3047,13 +3047,13 @@
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -3075,13 +3075,13 @@
       <c r="I10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -3109,10 +3109,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3140,10 +3140,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:I13" si="1">"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(C12,FIND("￥",C12)+1,5),-MID(C11,FIND("￥",C11)+1,5))</f>
         <v>￥0</v>
@@ -3210,25 +3210,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第四周"</f>
         <v>2020年1月第四周</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="str">
         <f>IF((统计!$C$3+21)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+21),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+21)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
         <v>1.20 Mon.</v>
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3289,13 +3289,13 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="36" t="str">
         <f>"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(D7,FIND("￥",D7)+1,5),MID(E7,FIND("￥",E7)+1,5),MID(F7,FIND("￥",F7)+1,5),MID(G7,FIND("￥",G7)+1,5),MID(H7,FIND("￥",H7)+1,5),MID(I7,FIND("￥",I7)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3348,10 +3348,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3376,10 +3376,10 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3411,13 +3411,13 @@
         <f t="shared" si="0"/>
         <v>￥0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -3439,16 +3439,16 @@
       <c r="I8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="54" t="str">
         <f>"￥"&amp;SUM(MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(D8,FIND("￥",D8)+1,5),MID(D9,FIND("￥",D9)+1,5),MID(D10,FIND("￥",D10)+1,5),MID(E8,FIND("￥",E8)+1,5),MID(E9,FIND("￥",E9)+1,5),MID(E10,FIND("￥",E10)+1,5),MID(F8,FIND("￥",F8)+1,5),MID(F9,FIND("￥",F9)+1,5),MID(F10,FIND("￥",F10)+1,5),MID(G8,FIND("￥",G8)+1,5),MID(G9,FIND("￥",G9)+1,5),MID(G10,FIND("￥",G10)+1,5),MID(H8,FIND("￥",H8)+1,5),MID(H9,FIND("￥",H9)+1,5),MID(H10,FIND("￥",H10)+1,5),MID(I8,FIND("￥",I8)+1,5),MID(I9,FIND("￥",I9)+1,5),MID(I10,FIND("￥",I10)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3470,13 +3470,13 @@
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -3498,13 +3498,13 @@
       <c r="I10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -3532,10 +3532,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3563,10 +3563,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:I13" si="1">"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(C12,FIND("￥",C12)+1,5),-MID(C11,FIND("￥",C11)+1,5))</f>
         <v>￥0</v>
@@ -3633,25 +3633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="47" t="str">
         <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第五周"</f>
         <v>2020年1月第五周</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="str">
         <f>IF((统计!$C$3+28)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+28),IF(((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Mon."</f>
         <v>1.27 Mon.</v>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3710,15 +3710,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="40" t="str">
+        <v>20</v>
+      </c>
+      <c r="J3" s="36" t="str">
         <f>"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(D7,FIND("￥",D7)+1,5),MID(E7,FIND("￥",E7)+1,5),MID(F7,FIND("￥",F7)+1,5),MID(G7,FIND("￥",G7)+1,5),MID(H7,FIND("￥",H7)+1,5),MID(I7,FIND("￥",I7)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3743,10 +3743,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3771,10 +3771,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3799,10 +3799,10 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3834,13 +3834,13 @@
         <f t="shared" si="0"/>
         <v>￥0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -3862,16 +3862,16 @@
       <c r="I8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="54" t="str">
         <f>"￥"&amp;SUM(MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(D8,FIND("￥",D8)+1,5),MID(D9,FIND("￥",D9)+1,5),MID(D10,FIND("￥",D10)+1,5),MID(E8,FIND("￥",E8)+1,5),MID(E9,FIND("￥",E9)+1,5),MID(E10,FIND("￥",E10)+1,5),MID(F8,FIND("￥",F8)+1,5),MID(F9,FIND("￥",F9)+1,5),MID(F10,FIND("￥",F10)+1,5),MID(G8,FIND("￥",G8)+1,5),MID(G9,FIND("￥",G9)+1,5),MID(G10,FIND("￥",G10)+1,5),MID(H8,FIND("￥",H8)+1,5),MID(H9,FIND("￥",H9)+1,5),MID(H10,FIND("￥",H10)+1,5),MID(I8,FIND("￥",I8)+1,5),MID(I9,FIND("￥",I9)+1,5),MID(I10,FIND("￥",I10)+1,5))</f>
         <v>￥0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3893,13 +3893,13 @@
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -3921,13 +3921,13 @@
       <c r="I10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -3955,10 +3955,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:I13" si="1">"￥"&amp;SUM(MID(C7,FIND("￥",C7)+1,5),MID(C8,FIND("￥",C8)+1,5),MID(C9,FIND("￥",C9)+1,5),MID(C10,FIND("￥",C10)+1,5),MID(C12,FIND("￥",C12)+1,5),-MID(C11,FIND("￥",C11)+1,5))</f>
         <v>￥0</v>
